--- a/results/03-2023/contributions-comparison-03-2023.xlsx
+++ b/results/03-2023/contributions-comparison-03-2023.xlsx
@@ -1047,31 +1047,31 @@
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13" t="n">
-        <v>-0.1087</v>
+        <v>-0.0784</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0596</v>
+        <v>0.0017</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.1348</v>
+        <v>-0.0419</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.1347</v>
+        <v>-0.0414</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.127</v>
+        <v>-0.0628</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.0588</v>
+        <v>-0.024</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0216</v>
+        <v>0.0267</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0255</v>
+        <v>0.0308</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0356</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="14">
@@ -1133,31 +1133,31 @@
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15" t="n">
-        <v>-0.1203</v>
+        <v>-0.1448</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0421</v>
+        <v>0.0079</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0943</v>
+        <v>0.0625</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1518</v>
+        <v>0.1251</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4239</v>
+        <v>0.4023</v>
       </c>
       <c r="P15" t="n">
-        <v>0.4186</v>
+        <v>0.3972</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.4505</v>
+        <v>0.4294</v>
       </c>
       <c r="R15" t="n">
-        <v>0.4032</v>
+        <v>0.3823</v>
       </c>
       <c r="S15" t="n">
-        <v>0.2887</v>
+        <v>0.2794</v>
       </c>
     </row>
     <row r="16">
@@ -1821,31 +1821,31 @@
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31" t="n">
-        <v>-1.4652</v>
+        <v>-1.4594</v>
       </c>
       <c r="L31" t="n">
-        <v>-1.5877</v>
+        <v>-1.5607</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.5185</v>
+        <v>-0.4575</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.5489</v>
+        <v>-0.4824</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.5849</v>
+        <v>-0.5423</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.1673</v>
+        <v>-0.1539</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.097</v>
+        <v>-0.1131</v>
       </c>
       <c r="R31" t="n">
-        <v>0.0442</v>
+        <v>0.0286</v>
       </c>
       <c r="S31" t="n">
-        <v>0.0103</v>
+        <v>0.0064</v>
       </c>
     </row>
     <row r="32">
@@ -3455,31 +3455,31 @@
       <c r="I69"/>
       <c r="J69"/>
       <c r="K69" t="n">
-        <v>0.0007</v>
+        <v>0.031</v>
       </c>
       <c r="L69" t="n">
-        <v>0.0097</v>
+        <v>0.0709</v>
       </c>
       <c r="M69" t="n">
-        <v>0.0028</v>
+        <v>0.0956</v>
       </c>
       <c r="N69" t="n">
-        <v>0.0039</v>
+        <v>0.0972</v>
       </c>
       <c r="O69" t="n">
-        <v>0.0029</v>
+        <v>0.0671</v>
       </c>
       <c r="P69" t="n">
-        <v>-0.0053</v>
+        <v>0.0294</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.0017</v>
+        <v>0.0068</v>
       </c>
       <c r="R69" t="n">
-        <v>0.0015</v>
+        <v>0.0068</v>
       </c>
       <c r="S69" t="n">
-        <v>0.0015</v>
+        <v>0.0069</v>
       </c>
     </row>
     <row r="70">
@@ -3541,31 +3541,31 @@
       <c r="I71"/>
       <c r="J71"/>
       <c r="K71" t="n">
-        <v>0.0024</v>
+        <v>-0.0222</v>
       </c>
       <c r="L71" t="n">
-        <v>0.0012</v>
+        <v>-0.0331</v>
       </c>
       <c r="M71" t="n">
-        <v>0.0012</v>
+        <v>-0.0307</v>
       </c>
       <c r="N71" t="n">
-        <v>0.0012</v>
+        <v>-0.0255</v>
       </c>
       <c r="O71" t="n">
-        <v>0.0012</v>
+        <v>-0.0203</v>
       </c>
       <c r="P71" t="n">
-        <v>0.0012</v>
+        <v>-0.0202</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.0012</v>
+        <v>-0.02</v>
       </c>
       <c r="R71" t="n">
-        <v>0.0001</v>
+        <v>-0.0209</v>
       </c>
       <c r="S71" t="n">
-        <v>0</v>
+        <v>-0.0093</v>
       </c>
     </row>
     <row r="72">
@@ -4229,31 +4229,31 @@
       <c r="I87"/>
       <c r="J87"/>
       <c r="K87" t="n">
-        <v>0.0229</v>
+        <v>0.0287</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0184</v>
+        <v>0.0454</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0211</v>
+        <v>0.0821</v>
       </c>
       <c r="N87" t="n">
-        <v>0.0134</v>
+        <v>0.08</v>
       </c>
       <c r="O87" t="n">
-        <v>0.0119</v>
+        <v>0.0545</v>
       </c>
       <c r="P87" t="n">
-        <v>0.0103</v>
+        <v>0.0236</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.0085</v>
+        <v>-0.0076</v>
       </c>
       <c r="R87" t="n">
-        <v>0.0014</v>
+        <v>-0.0143</v>
       </c>
       <c r="S87" t="n">
-        <v>0.0014</v>
+        <v>-0.0025</v>
       </c>
     </row>
     <row r="88">
